--- a/data/trans_orig/P78C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD8A071-4B39-4B77-824A-7D3F36773039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3971A64A-5113-4B21-8B22-80ECB9D5EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0201294-BF1C-42C8-BC40-028230BED596}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B7DC68D9-34BF-4397-8E2D-96E47C83BAA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de otros asuntos en 2023 (Tasa respuesta: 3,82%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>5,17%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,7 +86,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>94,83%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -95,136 +95,142 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -233,13 +239,16 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>0%</t>
@@ -248,190 +257,193 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>14,02%</t>
+    <t>14,17%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>95,6%</t>
+    <t>95,55%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -846,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD11D45-D8EA-41F2-ABA9-D168FE64340C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE37CC96-5A7E-4FA8-9F91-329D12422C14}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -980,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -995,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1029,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>2925</v>
+        <v>4945</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1044,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2925</v>
+        <v>4945</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1078,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3084</v>
+        <v>5112</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>3084</v>
+        <v>5112</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -1116,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>13780</v>
+        <v>13885</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -1131,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8956</v>
+        <v>8240</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
@@ -1146,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>22736</v>
+        <v>22125</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -1167,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>14206</v>
+        <v>14337</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
@@ -1182,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>6648</v>
+        <v>6166</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -1197,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>20854</v>
+        <v>20503</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1218,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>27986</v>
+        <v>28222</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -1233,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>15604</v>
+        <v>14406</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>17</v>
@@ -1248,7 +1260,7 @@
         <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>43590</v>
+        <v>42628</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>17</v>
@@ -1271,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1286,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1656</v>
+        <v>1570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
@@ -1301,16 +1313,16 @@
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2854</v>
+        <v>2751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,13 +1334,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>2663</v>
+        <v>2596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -1337,10 +1349,10 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2232</v>
+        <v>2114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
@@ -1352,16 +1364,16 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4894</v>
+        <v>4710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>3860</v>
+        <v>3777</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -1388,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>3888</v>
+        <v>3684</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>17</v>
@@ -1403,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>7748</v>
+        <v>7461</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>17</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1426,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3181</v>
+        <v>3214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
@@ -1441,31 +1453,31 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>4152</v>
+        <v>3902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>7333</v>
+        <v>7116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3065</v>
+        <v>2921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
@@ -1492,31 +1504,31 @@
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>2412</v>
+        <v>2253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>5477</v>
+        <v>5174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>6246</v>
+        <v>6135</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -1543,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>6564</v>
+        <v>6155</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>17</v>
@@ -1558,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>12810</v>
+        <v>12290</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>17</v>
@@ -1572,7 +1584,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1581,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -1596,13 +1608,13 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1126</v>
+        <v>1032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1611,13 +1623,13 @@
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1635</v>
+        <v>1496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1638,19 +1650,19 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1621</v>
+        <v>1387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
@@ -1662,16 +1674,16 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1621</v>
+        <v>1387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1698,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>2747</v>
+        <v>2419</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>17</v>
@@ -1713,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3256</v>
+        <v>2883</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>17</v>
@@ -1727,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1736,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
@@ -1757,25 +1769,25 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1799,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
@@ -1802,13 +1814,13 @@
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>856</v>
+        <v>802</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1817,13 +1829,13 @@
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1835</v>
+        <v>1791</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>14</v>
@@ -1838,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -1853,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>856</v>
+        <v>802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>17</v>
@@ -1868,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>1995</v>
+        <v>1954</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>17</v>
@@ -1882,7 +1894,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1891,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
@@ -1906,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>6099</v>
+        <v>5759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -1921,16 +1933,16 @@
         <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>8400</v>
+        <v>8058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1125</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>13</v>
@@ -1957,31 +1969,31 @@
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>943</v>
+        <v>882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>2068</v>
+        <v>1968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3426</v>
+        <v>3385</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
@@ -2008,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>7042</v>
+        <v>6641</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>17</v>
@@ -2023,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>10468</v>
+        <v>10026</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>17</v>
@@ -2037,7 +2049,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2046,46 +2058,46 @@
         <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>106151</v>
+        <v>90043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
       </c>
       <c r="I25" s="7">
-        <v>99257</v>
+        <v>82829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
       </c>
       <c r="N25" s="7">
-        <v>205409</v>
+        <v>172872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,46 +2109,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>3207</v>
+        <v>2778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>4573</v>
+        <v>3856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>7780</v>
+        <v>6634</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2160,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="7">
-        <v>109358</v>
+        <v>92821</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -2163,7 +2175,7 @@
         <v>136</v>
       </c>
       <c r="I27" s="7">
-        <v>103830</v>
+        <v>86685</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>17</v>
@@ -2178,7 +2190,7 @@
         <v>241</v>
       </c>
       <c r="N27" s="7">
-        <v>213189</v>
+        <v>179506</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>17</v>
@@ -2201,46 +2213,46 @@
         <v>119</v>
       </c>
       <c r="D28" s="7">
-        <v>127281</v>
+        <v>111250</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>166</v>
       </c>
       <c r="I28" s="7">
-        <v>121406</v>
+        <v>103497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
       </c>
       <c r="N28" s="7">
-        <v>248687</v>
+        <v>214748</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,46 +2264,46 @@
         <v>21</v>
       </c>
       <c r="D29" s="7">
-        <v>25245</v>
+        <v>24707</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>22208</v>
+        <v>22405</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
       </c>
       <c r="N29" s="7">
-        <v>47453</v>
+        <v>47112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,7 +2315,7 @@
         <v>140</v>
       </c>
       <c r="D30" s="7">
-        <v>152526</v>
+        <v>135957</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -2318,7 +2330,7 @@
         <v>194</v>
       </c>
       <c r="I30" s="7">
-        <v>143614</v>
+        <v>125902</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>17</v>
@@ -2333,7 +2345,7 @@
         <v>334</v>
       </c>
       <c r="N30" s="7">
-        <v>296140</v>
+        <v>261860</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>17</v>
@@ -2347,7 +2359,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
